--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hetal\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68197A-E880-41D8-9612-FA1BDFAB6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E162207A-5175-400D-81C2-522B95BBA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34AAD037-960B-403F-9FE5-7310B022938C}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Why do we use it?</t>
   </si>
   <si>
     <t>It is a long established fact that a reader will be distracted by the readable content of a page when looking at its layout. The point of using Lorem Ipsum is that it has a more-or-less normal distribution of letters, as opposed to using 'Content here, content here', making it look like readable English. </t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -399,21 +408,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C431A2B-120D-4EE0-8BD1-79323CB2C12B}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="52.2">
+    <row r="2" spans="1:4" ht="34.799999999999997">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" ht="372">
+    <row r="3" spans="1:4" ht="192">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
